--- a/Résultats/combined_dataVerveur.xlsx
+++ b/Résultats/combined_dataVerveur.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -362,6 +362,12 @@
     <t xml:space="preserve">CCTCCCGAAAGGTTAAGCTACCTGCTTCTGGGTGCAACAAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCAATGCTGATCTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGATAGGGTTTCTGGGATTGGCTTGCCCTCGCGGGTTTGCAGCCCTCTGTCCCTACCATTGTAGTACGTGTGTAGCCCTGGTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCGGTCTCCTTAGAGTTCCCACCATTACGTGCTGGCAACTAAGGACAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTTCGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCGACATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATACTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGCGAACTTAACGCGTTAGCTTCGATACTGCGTGCCAAATTGCACCCAACATCCAGTTCGCATCGTTTAGGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTCAGTGTCAGTGTTGGTCCAGGTAGCTGCCTTCGCCATGGATGTTCCTCCCGATCTCTACGCATTTCACTGCTACACCGGGAATTCCACTACCCTCTACCACACTCTAGTCGCCCAGTATCCACTGCAATTCCCAGGTTGAGCCCAGGGCTTTCACAACAGACTTAAACAACCACCTACGCACGCTTTACGCCCAGTAATTCCGAGTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTTTGGGTACCGTCAGAACAACCGAGTATTAATCGACTGCTTT</t>
   </si>
   <si>
+    <t xml:space="preserve">VG80_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGGGCAAGCGCCCTCCCGAAGGTTAAGCTACCTGCTTCTGGTGCAACAAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCAATGCTGATCTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGATAGGGTTTCTGGGATTGGCTTGCCCTCGCGGGTTTGCAGCCCTCTGTCCCTACCATTGTAGTACGTGTGTAGCCCTGGTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCGGTCTCCTTAGAGTTCCCACCATTACGTGCTGGCAACTAAGGACAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTTCGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCGACATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATACTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGCGAACTTAACGCGTTAGCTTCGATACTGCGTGCCAAATTGCACCCAACATCCAGTTCGCATCGTTTAGGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTCAGTGTCAGTGTTGGTCCAGGTAGCTGCCTTCGCCATGGATGTTCCTCCCGATCTCTACGCATTTCACTGCTACACCGGGAATTCCACTACCCTCTACCACACTCTAGTCGCCCAGTATCCACTGCAATTCCCAGGTTGAGCCCAGGGCTTTCACAACAGACTTAAACAACCACCTACGCACGCTTTACGCCCAGTAATTCCGAGTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTTTGGGTACCGTCAGAACAACCGAGTATTAATCGACTGCTTTTCTTTCCCAACAAAAGGGCTTTACAACCCGAAGGCCTTCTTCACCCACGCGGTATGGCTGGATCAGGCTTGCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGTGGCTGATCATCCTNTCAAACCAGCTACGGNTCGTCGCCTTGGTGGGCC</t>
+  </si>
+  <si>
     <t xml:space="preserve">VG-105-Premixed.ab1</t>
   </si>
   <si>
@@ -464,6 +470,27 @@
     <t xml:space="preserve">CCTCCCCGAAAGGTTAAACTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACACCTGCGTCTCCGCTGGCTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTGTCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGCACTCTAGTTCACCAGTTTCAAATGCAGTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAATGAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGG</t>
   </si>
   <si>
+    <t xml:space="preserve">VG81_1_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCGAAGGTTAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTATGGGATTAGCTCCACCTCGCGGCTTGGCAACCCTTTGTACCGACCATTGTAGCACGTGTGTAGCCCTGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCACCATTACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTCTGAGTTCCCGAAGGCACCAATCTATCTCTAGAAAGTTCTCAGCATGTCAAGGCCAGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAGAGTTCAAGACTCCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGTGTCAGTATCAGTCCAGGTAGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACAGGAAATTCCACTACCCTCTACCGTACTCTAGCTCAGCAGTTTTGGATGCAGTTCCCAGGTTGAGCCCGGGGATTTCACATCCAACTTACTGAACCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTGTCGGTAACGTCAAAATAGCAACGTATTAAGTTACTACCCTTCCTCCCAACTTAAAGTGCTTTACAATCCGAAGACCTTCTTCACACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGACCGTGTCTCAGTTCCAGTGTGACTGATCATCCTCCTNGAACCAGTTACGGAACCGAAACCCTGGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG82_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AACCGTCCCCCCGAAAGGTTAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTATGGGATTAGCTCCACCTCGCGGCTTGGCAACCCTTTGTACCGACCATTGTAGCACGTGTGTAGCCCTGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCACCATTACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTCTGAGTTCCCGAAGGCACCAATCTATCTCTAGAAAGTTCTCAGCATGTCAAGGCCAGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAGAGTTCAAGACTCCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGTGTCAGTATCAGTCCAGGTAGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACAGGAAATTCCACTACCCTCTACCGTACTCTAGCTCAGCAGTTTTGGATGCAGTTCCCAGGTTGAGCCCGGGGATTTCACATCCAACTTACTGAACCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTGTCGGTAACGTCAAAATAGCAACGTATTAAGTTACTACCCTTCCTCCCAACTTAAAGTGCTTTACAATCCGAAGACCTTCTTCAACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGACCGTGTCTCAGTTCCAGNGTGACTGATCATCCTNTCAGACNGTTACGGATCGTAGCCTTGGTGAGCCTTACCTCACCAACTAGCTAATCCAACTAGGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG86_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas marincola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GGTACCGTCCTCCCGAAGGTTAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTATGGGATTAGCTCCACCTCGCGGCTTGGCAACCCTTTGTACCGACCATTGTAGCACGTGTGTAGCCCTGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCACCATAACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTCTGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCAGCATGTCAAGGCCAGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAATTCTCAAGGAATCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGCGTCAGTATCAGTCCAGGTGGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACAGGAAATTCCACCACCCTCTACTGTACTCTAGCTTGCCAGTTTTGGATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCCAACTTAACAAACCGCCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCTGTATTACCGCGGCTGCTGGCACAGAGTTAGCCGGTGCTTATTCTGTCGGTAACGTCAAAACAGCAACGTATTAAGTTACTGCCCTTCCTCCCAACTTAAAGTGCTTTACAATCCGAAGACCTTCTTCCACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCAATATTCCCCACTGCTGCCTCCGTAGGGTCTGGACCGTGTCTCNGTTCCAGTGTGACTGATNATCCTNTCAAACAGTTACGGATCGTCGCCTGGTGAGCATTACCTCACAACTAGCTAATCCGAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">VS-15-Premixed.ab1</t>
   </si>
   <si>
@@ -759,6 +786,33 @@
   </si>
   <si>
     <t xml:space="preserve">GGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAAGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE110_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas trivialis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACCGTCCTCCCGAAGGTTAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGACATTCTGATTCGCGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTCTGGGATTAGCTCCACCTCGCGGCTTGGCAACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCAGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCACCATTACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAATGTTCCCGAAGGCACCAATCTATCTCTAGAAAGTTCATTGGATGTCAAGGCCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAAAGCTCAAGGCTTCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGTGTCAGTATTAGTCCAGGTGGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACAGGAAATTCCACCACCCTCTACCATACTCTAGTCAGTCAGTTTTGAATGCAGTTCCCAGGTTGAGCCCGGGGATTTCACATCCAACTTAACAAACCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCTGTATTACCGCGGCTGCTGGCACAGAGTTAGCCGGTGCTTATTCTGTCGGTAACGTCAAAACAATTACGTATTAGGTAACTGCCCTTCCTCCCAACTTAAAGTGCTTTACAATCCGAAGACCTTCTTCCNACACGCGGCATGGCTGGATCAGGCTTTCGCCATTGTCCAATATTCCCNNCTGCTGCCTCCCGTAGGAGTCTGGACCGGGTCCCAGTTCCAGNNGACGGACNTCCCCNCAGACCAGTTACGGATCGTCGCCCTGGTGAGCCTTACCCCCCAACTAGCTTATCCGACTAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas poae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE113_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flavobacterium pectinovorum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTAGGCAGCTCCTTGCGGTCACCGACTTCAGGCACCCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGACCGGTTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTACCGGCCATTGTAGCACGTGTGTAGCCCAAGGCGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCTTGCGAAAAGTCTGTTTCCAAACCGGTCAATCTACATTTAAGCCTTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAAACTTGCGTTCGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGCCACTGAGATTGCTCCCAACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACGCTTTCGTCCATCAGCGTCAATATATTAGTAGTAACCTGCCTTCGCAATTGGTATTCCATGTAATCTCTAAGCATTTCACCGCTACACTACATATTCTAGTTACTTCCTAATAATTCAAGTCTAGCAGTATCAATGGCCGTTCCACCGTTGAGCGATGGGCTTTCACCACTGACTTACCAAACCGCCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACGATACCGTCAAGCTACTTCACGAAGTAGTGTTTCTTCTCGTATAAAAGCAGTTTACAATCCATAGGACCGTCATCCTGCACGCGGCATGGCTGGATCAGGCTTGCGCCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGTGGGGGATNTCCCTCTCAGGACCCCTACCCATCGAAGTCTTGGTAAGCCGTTACCTTACCAACTAACTAATGGGACCCAGGCCCATCTTTTACCGTTGGGACTTTAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE82_2_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGTGGGTAAGCGCCCTCCCGAAGGTTAAGCTACCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACATACTTTATGAGGTCCGCTTGCTCTCGCGAGTTTGCTTCTCTTTGTATATGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTTGAGTTCCCGACATTACTCGCTGGCAACAAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCGACTTAACGCGTTAGCTCCGGAAGCCACGCCTCAAGGGCACAACCTCCAAGTCGACATCGTTTACAGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGCTTGCCAGTTTCAAATGCAGTTCCCAAGTTAAGCTCGGGGATTTCACATCTGACTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCAATGTTCAGTGCTATTAACACTGAACCCTTCCTCCTCGCTGAAAGTGCTTTACAACCCTAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGACCGTGTTCTCAGTTCCAGTGGGGGCTGGTC</t>
   </si>
 </sst>
 </file>
@@ -2586,6 +2640,50 @@
         <v>114</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" t="n">
+        <v>99.669</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>100</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1210</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1210</v>
+      </c>
+      <c r="N35" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2646,7 +2744,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2685,12 +2783,12 @@
         <v>1054</v>
       </c>
       <c r="N2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2705,13 +2803,13 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I3" t="n">
         <v>98.433</v>
@@ -2729,12 +2827,12 @@
         <v>1085</v>
       </c>
       <c r="N3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2773,12 +2871,12 @@
         <v>1050</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2796,10 +2894,10 @@
         <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -2817,12 +2915,12 @@
         <v>1040</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2861,12 +2959,12 @@
         <v>1040</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -2905,12 +3003,12 @@
         <v>975</v>
       </c>
       <c r="N7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -2931,7 +3029,7 @@
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I8" t="n">
         <v>99.897</v>
@@ -2949,12 +3047,12 @@
         <v>975</v>
       </c>
       <c r="N8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -2993,12 +3091,12 @@
         <v>975</v>
       </c>
       <c r="N9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3037,12 +3135,12 @@
         <v>975</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3081,12 +3179,12 @@
         <v>975</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3125,12 +3223,12 @@
         <v>975</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -3169,12 +3267,12 @@
         <v>975</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -3213,12 +3311,12 @@
         <v>1001</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3233,13 +3331,13 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I15" t="n">
         <v>99.891</v>
@@ -3257,12 +3355,12 @@
         <v>914</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3283,7 +3381,7 @@
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I16" t="n">
         <v>99.795</v>
@@ -3301,12 +3399,12 @@
         <v>975</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3345,12 +3443,12 @@
         <v>1031</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3368,10 +3466,10 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I18" t="n">
         <v>99.807</v>
@@ -3389,12 +3487,12 @@
         <v>1035</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -3412,10 +3510,10 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I19" t="n">
         <v>99.807</v>
@@ -3433,12 +3531,12 @@
         <v>1035</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -3477,12 +3575,12 @@
         <v>949</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -3521,12 +3619,12 @@
         <v>949</v>
       </c>
       <c r="N21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -3565,12 +3663,12 @@
         <v>949</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -3609,12 +3707,12 @@
         <v>949</v>
       </c>
       <c r="N23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -3653,7 +3751,139 @@
         <v>949</v>
       </c>
       <c r="N24" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" t="n">
+        <v>99.319</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>99</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1175</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1191</v>
+      </c>
+      <c r="N25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" t="n">
+        <v>98.947</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>100</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1231</v>
+      </c>
+      <c r="N26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" t="n">
+        <v>98.846</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1222</v>
+      </c>
+      <c r="N27" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3731,13 +3961,13 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I2" t="n">
         <v>97.536</v>
@@ -3755,12 +3985,12 @@
         <v>1063</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -3799,12 +4029,12 @@
         <v>1069</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3825,7 +4055,7 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -3843,12 +4073,12 @@
         <v>1078</v>
       </c>
       <c r="N4" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3869,7 +4099,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -3887,12 +4117,12 @@
         <v>1078</v>
       </c>
       <c r="N5" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3931,12 +4161,12 @@
         <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3975,12 +4205,12 @@
         <v>1013</v>
       </c>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4001,7 +4231,7 @@
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I8" t="n">
         <v>98.746</v>
@@ -4019,12 +4249,12 @@
         <v>1054</v>
       </c>
       <c r="N8" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4039,13 +4269,13 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I9" t="n">
         <v>99.569</v>
@@ -4063,12 +4293,12 @@
         <v>1161</v>
       </c>
       <c r="N9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4086,10 +4316,10 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I10" t="n">
         <v>99.812</v>
@@ -4107,12 +4337,12 @@
         <v>1063</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4128,10 +4358,10 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I11" t="n">
         <v>99.729</v>
@@ -4149,12 +4379,12 @@
         <v>1107</v>
       </c>
       <c r="N11" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4193,12 +4423,12 @@
         <v>1035</v>
       </c>
       <c r="N12" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4237,12 +4467,12 @@
         <v>1035</v>
       </c>
       <c r="N13" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -4281,12 +4511,12 @@
         <v>1035</v>
       </c>
       <c r="N14" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4325,12 +4555,12 @@
         <v>1035</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -4369,12 +4599,12 @@
         <v>1035</v>
       </c>
       <c r="N16" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -4413,12 +4643,12 @@
         <v>1035</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -4439,7 +4669,7 @@
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I18" t="n">
         <v>100</v>
@@ -4457,12 +4687,12 @@
         <v>1035</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -4483,7 +4713,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="I19" t="n">
         <v>100</v>
@@ -4501,12 +4731,12 @@
         <v>1035</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -4518,16 +4748,16 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H20" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="I20" t="n">
         <v>99.213</v>
@@ -4545,12 +4775,12 @@
         <v>1145</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -4559,19 +4789,19 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I21" t="n">
         <v>97.28</v>
@@ -4589,12 +4819,12 @@
         <v>956</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -4609,13 +4839,13 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I22" t="n">
         <v>99.798</v>
@@ -4633,12 +4863,12 @@
         <v>994</v>
       </c>
       <c r="N22" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -4653,13 +4883,13 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="I23" t="n">
         <v>99.555</v>
@@ -4677,7 +4907,7 @@
         <v>1124</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4970,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4761,7 +4991,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
         <v>98.748</v>
@@ -4779,12 +5009,12 @@
         <v>1048</v>
       </c>
       <c r="N2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -4805,7 +5035,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I3" t="n">
         <v>99.197</v>
@@ -4823,12 +5053,12 @@
         <v>996</v>
       </c>
       <c r="N3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4849,7 +5079,7 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="I4" t="n">
         <v>98.725</v>
@@ -4867,12 +5097,12 @@
         <v>1037</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4893,7 +5123,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="I5" t="n">
         <v>99.898</v>
@@ -4911,12 +5141,12 @@
         <v>982</v>
       </c>
       <c r="N5" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4925,19 +5155,19 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I6" t="n">
         <v>99.5</v>
@@ -4955,12 +5185,12 @@
         <v>1001</v>
       </c>
       <c r="N6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4978,10 +5208,10 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I7" t="n">
         <v>98.645</v>
@@ -4999,12 +5229,12 @@
         <v>1048</v>
       </c>
       <c r="N7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -5019,13 +5249,13 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="I8" t="n">
         <v>99.237</v>
@@ -5043,12 +5273,12 @@
         <v>1053</v>
       </c>
       <c r="N8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -5087,12 +5317,12 @@
         <v>1046</v>
       </c>
       <c r="N9" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -5131,12 +5361,12 @@
         <v>1027</v>
       </c>
       <c r="N10" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -5154,10 +5384,10 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I11" t="n">
         <v>99.804</v>
@@ -5175,12 +5405,12 @@
         <v>1018</v>
       </c>
       <c r="N11" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -5192,16 +5422,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="H12" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="I12" t="n">
         <v>99.429</v>
@@ -5219,12 +5449,12 @@
         <v>1050</v>
       </c>
       <c r="N12" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -5263,12 +5493,12 @@
         <v>1057</v>
       </c>
       <c r="N13" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -5280,16 +5510,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F14" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H14" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="I14" t="n">
         <v>99.904</v>
@@ -5307,12 +5537,12 @@
         <v>1051</v>
       </c>
       <c r="N14" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -5333,7 +5563,7 @@
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="I15" t="n">
         <v>99.911</v>
@@ -5351,12 +5581,12 @@
         <v>1123</v>
       </c>
       <c r="N15" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -5377,7 +5607,7 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="I16" t="n">
         <v>99.635</v>
@@ -5395,12 +5625,12 @@
         <v>1097</v>
       </c>
       <c r="N16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -5421,7 +5651,7 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I17" t="n">
         <v>99.714</v>
@@ -5439,12 +5669,12 @@
         <v>1050</v>
       </c>
       <c r="N17" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -5465,7 +5695,7 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="I18" t="n">
         <v>99.698</v>
@@ -5483,7 +5713,183 @@
         <v>992</v>
       </c>
       <c r="N18" t="s">
-        <v>247</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" t="n">
+        <v>98.214</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>99</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1232</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1227</v>
+      </c>
+      <c r="N19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" t="n">
+        <v>98.214</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>99</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1232</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1227</v>
+      </c>
+      <c r="N20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" t="n">
+        <v>98.312</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1244</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1244</v>
+      </c>
+      <c r="N21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G22" t="s">
+        <v>242</v>
+      </c>
+      <c r="H22" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99.565</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>98</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1150</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1172</v>
+      </c>
+      <c r="N22" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats/combined_dataVerveur.xlsx
+++ b/Résultats/combined_dataVerveur.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -368,6 +368,12 @@
     <t xml:space="preserve">CGTGGGCAAGCGCCCTCCCGAAGGTTAAGCTACCTGCTTCTGGTGCAACAAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCAATGCTGATCTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGATAGGGTTTCTGGGATTGGCTTGCCCTCGCGGGTTTGCAGCCCTCTGTCCCTACCATTGTAGTACGTGTGTAGCCCTGGTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCGGTCTCCTTAGAGTTCCCACCATTACGTGCTGGCAACTAAGGACAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTTCGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCGACATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATACTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGCGAACTTAACGCGTTAGCTTCGATACTGCGTGCCAAATTGCACCCAACATCCAGTTCGCATCGTTTAGGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTCAGTGTCAGTGTTGGTCCAGGTAGCTGCCTTCGCCATGGATGTTCCTCCCGATCTCTACGCATTTCACTGCTACACCGGGAATTCCACTACCCTCTACCACACTCTAGTCGCCCAGTATCCACTGCAATTCCCAGGTTGAGCCCAGGGCTTTCACAACAGACTTAAACAACCACCTACGCACGCTTTACGCCCAGTAATTCCGAGTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTTTGGGTACCGTCAGAACAACCGAGTATTAATCGACTGCTTTTCTTTCCCAACAAAAGGGCTTTACAACCCGAAGGCCTTCTTCACCCACGCGGTATGGCTGGATCAGGCTTGCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGTGGCTGATCATCCTNTCAAACCAGCTACGGNTCGTCGCCTTGGTGGGCC</t>
   </si>
   <si>
+    <t xml:space="preserve">VG9_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTTCGGCGGCTGGGCTCCATAAAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCAATTCCGGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAACGGCTTTATGGGATTCGCTTCACCTCGCGGTGTCGCTGCCCTTTGTACCGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCCGAAGGGGAACGTCCTGTCTCCAGGATTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACTGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAACCTTGCGGTCGTACTCCCCAGGCGGAGTGCTTAATGTGTTAACTTCAGCACTGAGGGTGGAACCCCCCAACACCTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGCGTCAGTTACAGACCAGAGAGCCGCCTTCGCCACTGGTGTTCCTCCACATATCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGCACTCAAGTCCTCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAAACTTAAAAGACCGCCTGCTCGCGCTTTACGCTCAATAATTCCGGACAACGCTGGCCACCTACGTAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">VG-105-Premixed.ab1</t>
   </si>
   <si>
@@ -491,6 +497,12 @@
     <t xml:space="preserve">GGTACCGTCCTCCCGAAGGTTAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGACATTCTGATTCACGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTATGGGATTAGCTCCACCTCGCGGCTTGGCAACCCTTTGTACCGACCATTGTAGCACGTGTGTAGCCCTGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTTCCCACCATAACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTCTGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCAGCATGTCAAGGCCAGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAATTCTCAAGGAATCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGCGTCAGTATCAGTCCAGGTGGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACAGGAAATTCCACCACCCTCTACTGTACTCTAGCTTGCCAGTTTTGGATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCCAACTTAACAAACCGCCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCTGTATTACCGCGGCTGCTGGCACAGAGTTAGCCGGTGCTTATTCTGTCGGTAACGTCAAAACAGCAACGTATTAAGTTACTGCCCTTCCTCCCAACTTAAAGTGCTTTACAATCCGAAGACCTTCTTCCACACGCGGCATGGCTGGATCAGGCTTTCGCCCATTGTCAATATTCCCCACTGCTGCCTCCGTAGGGTCTGGACCGTGTCTCNGTTCCAGTGTGACTGATNATCCTNTCAAACAGTTACGGATCGTCGCCTGGTGAGCATTACCTCACAACTAGCTAATCCGAC</t>
   </si>
   <si>
+    <t xml:space="preserve">VG92_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGGCTGGCTCCATAAAGGTTACCCCACCGACTTCGGGTGTTACAAACTCTCGTGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGGCATGCTGATCCGCGATTACTAGCAATTCCGGCTTCATGCAGGCGAGTTGCAGCCTGCAATCCGAACTGAGAACGGCTTTATGGGATTCGCTTCACCTCGCGGTGTCGCTGCCCTTTGTACCGTCCATTGTAGCACGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCACCTTAGAGTGCCCAACTAAATGCTGGCAACTAAGATCAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTCTGTCCCCCGAAGGGGAACGTCCTGTCTCCAGGATTGTCAGAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACTGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAACCTTGCGGTCGTACTCCCCAGGCGGAGTGCTTAATGTGTTAACTTCAGCACTGAGGGTGGAACCCCCCAACACCTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCGCCTCAGCGTCAGTTACAGACCAGAGAGCCGCCTTCGCCACTGGTGTTCCTCCACATATCTACGCATTTCACCGCTACACGTGGAATTCCACTCTCCTCTTCTGCACTCAAGTCCTCCAGTTTCCAATGACCCTCCACGGTTGAGCCGTGGGCTTTCACATCAGACTTAAAAGACCGCCTGCGCGCGCTTTACGCCCAATAATTCCGGACAACGCTTGCCACCTACGTATTACCGCGGCTGCTGGCACGTAGTTAGCCGTGGCTTTCTGGTTAGGTACCGTCAAGGTACCGCCCTATTCGAACGGTACTTGTTCTTCCCTAACAACAGAGCTTTACGACCCGAAGGCCTTCGTCACTCACGCGGCGTTGCTCCGTCAGACTTTCGTCCATTGCGGAAGATTCCCTACGGCTGCCTCCCGTAGGAGTCNGGGCCGGGTCTCAGTCCCAGTGNGGCCGATCACCTTCCAGGTCGGCTACCCNTCGNCCCCTTGGTAAGCCATTACCTTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VS-15-Premixed.ab1</t>
   </si>
   <si>
@@ -629,6 +641,51 @@
     <t xml:space="preserve">GTAACCGTCCTCCCGAAGGTTAAACTAGCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAACATTCTGATTTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGAGCTTTAAGGGATCCGCTTACTCTCGCAAGTTTGCTTCCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCAACTTAAGGCTGGCAACTAAGGACAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTATCTAGATTCCCGAAGGCACCAATTCATCTCTGAAAAGTTTCTAGTATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTATCGCGTTAGCTTCGCTACTCACGGATTAAATCCACAAACAGCTAGTAGACAGCGTTTACGGTGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACACTTTCGCACATGAGCGTCAGTTACTGACCAGGGAGTCGCCTTCGCCACTGATGTTCCTCCAGATATCTACGCATTTCACCGCTACACCTGGAATTCCACTCCCCTCTCCAAAACTCTAGCCTGCCAGTTCTAAATGCAATTCCCAGGTTGAGCCCAGGGCTTTCACATCTAGCTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTCTTCTGTTGCTAACGTCACAGCTAACGGGTATTAACCGTTAACCTTTCCTCACAACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGGTTTCCCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAG</t>
   </si>
   <si>
+    <t xml:space="preserve">VS31_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactobacillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnobacterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnobacterium viridans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATTACTAGCGATTCCGGCTTCATGTAGGCGAGTTGCAGCCTACAATCCGAACTGAGAATGGCTTTAAGAGATTAGCTTGGCCTCGCGACCTTGCGACTCGTTGTACCATCCATTGTAGCAAGTGTGTAGCCCAGGTCATAAGGGGCATGATGATTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCACTAGAGTGCCCAACTAAATGCTGGCAACTAGTAATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAACCATGCACCACCTGTCACTTTGTCCCCGAAGGGAAAGCTCTATCTCTAGAGTGGTCAAAGGATGTCAAGACCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGTCCCCGTCAATTCCTTTGAGTTTCAGCCTTGCGGCCGTACTCCCCAGGCGGAGTGCTTAATGCGTTAGCTGCAGCACTGAAGGGCGGAAACCCTCCAACACTTAGCACTCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGAGCCTCAGCGTCAGTTACAGACCAAAGAGTCGCCTTTCGCCACTGGTGTTCCTCCACATATCTACGCATTTCACCGCTACACGTGGAAATCCACTCTCCTCTTCTGCACTCGAGTTCTCCAGTTTCCAATGACCCTCCCCGGTGGAGCCGGGGGCTTTCACATCAGACTTAAAGAACCGCCTGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS3_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoriphagus aquimarinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTAAACAGCTCCTTAACGGTTACTGCCTTCAGGTCTACCCGACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCATGAGGTCGAGTTGCAGACCTCAATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTACCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGTACTGTCTCCAATACATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCCCGCAGGGGCATTTTCTTCCCAGATAAAGCAGTTTACAACGCAGAACGCCGTCTTCCTGCACGCGGCATGGCTGGGTCAGACTCTCGTCCATTGCCCAAAATTCCCTACTGCTGCCTCCCGTAGGAATCTGGCCCGTATCTCAGTGCCAGTGGGGGGGACCTTCCTCCNGAANCCCCTACGGANNNTAGCCTTGGGGGTCCGTTACCCGCCAACTAACTAAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS55A_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterobacterales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yersiniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahnella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahnella victoriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTGGTAAGCGCCCTCCCGAAGGTTAAGCTACCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACATACTTTATGAGGTCCGCTTGCTCTCGCGAGTTTGCTTCTCTTTGTATATGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTTGAGTTCCCGACATTACTCGCTGGCAACAAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCGACTTAACGCGTTAGCTCCGGAAGCCACGCCTCAAGGGCACAACCTCCAAGTCGACATCGTTTACAGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGCTTGCCAGTTTCAAATGCAGTTCCCAAGTTAAGCTCGGGGATTTCACATCTGACTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCAATGTTCAGTGCTATTAACACTGAACCCTTCCTCCTCGCTGAAAGTGCTTTACAACCCTAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGNGGGCTGGTCATCCTNTCAANCCAGCTAGGGATCGTCGCCTAGGTGAGCCATTACCTCACCTACTAGCTAA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE-100-Premixed.ab1</t>
   </si>
   <si>
@@ -737,18 +794,6 @@
     <t xml:space="preserve">VE-86-Premixed.ab1</t>
   </si>
   <si>
-    <t xml:space="preserve">Enterobacterales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yersiniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahnella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rahnella victoriana</t>
-  </si>
-  <si>
     <t xml:space="preserve">CCCTCCCGAAGGTTAAGCTACCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACATACTTTATGAGGTCCGCTTGCTCTCGCGAGTTCGCTTCTCTTTGTATATGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTTGAGTTCCCGACATTACTCGCTGGCAACAAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCGACTTAACGCGTTAGCTCCGGAAGCCACGCCTCAAGGGCACAACCTCCAAGTCGACATCGTTTACAGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGCTTGCCAGTTTCAAATGCAGTTCCCAAGTTAAGCTCGGGGATTTCACATCTGACTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCAATGTTCAGTGCTATTAACACTGAACCCTTCCTCCTCGCTGAAAGTGCTTTACAACCCTAAGGCCTTCTTC</t>
   </si>
   <si>
@@ -809,10 +854,76 @@
     <t xml:space="preserve">CCTAGGCAGCTCCTTGCGGTCACCGACTTCAGGCACCCCCAGCTTCCATGGCTTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGGATCATGGCTGATATCCGATTACTAGCGATTCCAGCTTCACGGAGTCGAGTTGCAGACTCCGATCCGAACTGTGACCGGTTTTATAGATTCGCTCCTGGTCACCCAGTGGCTGCTCTCTGTACCGGCCATTGTAGCACGTGTGTAGCCCAAGGCGTAAGGGCCGTGATGATTTGACGTCATCCCCACCTTCCTCACAGTTTGCACTGGCAGTCTTGTTAGAGTTCCCGACATGACTCGCTGGCAACTAACAACAGGGGTTGCGCTCGTTATAGGACTTAACCTGACACCTCACGGCACGAGCTGACGACAACCATGCAGCACCTTGTAAATTGTCTTGCGAAAAGTCTGTTTCCAAACCGGTCAATCTACATTTAAGCCTTGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAAACTTGCGTTCGTACTCCCCAGGTGGGATACTTATCACTTTCGCTTAGCCACTGAGATTGCTCCCAACAGCTAGTATCCATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTCGCTACCCACGCTTTCGTCCATCAGCGTCAATATATTAGTAGTAACCTGCCTTCGCAATTGGTATTCCATGTAATCTCTAAGCATTTCACCGCTACACTACATATTCTAGTTACTTCCTAATAATTCAAGTCTAGCAGTATCAATGGCCGTTCCACCGTTGAGCGATGGGCTTTCACCACTGACTTACCAAACCGCCTACGGACCCTTTAAACCCAATGATTCCGGATAACGCTTGGATCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGATCCTTATTCTTACGATACCGTCAAGCTACTTCACGAAGTAGTGTTTCTTCTCGTATAAAAGCAGTTTACAATCCATAGGACCGTCATCCTGCACGCGGCATGGCTGGATCAGGCTTGCGCCCATTGTCCAATATTCCTCACTGCTGCCTCCCGTAGGAATCTGGTCCGTGTCTCAGTACCAGTGTGGGGGATNTCCCTCTCAGGACCCCTACCCATCGAAGTCTTGGTAAGCCGTTACCTTACCAACTAACTAATGGGACCCAGGCCCATCTTTTACCGTTGGGACTTTAAT</t>
   </si>
   <si>
+    <t xml:space="preserve">VE122A_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoriphagus chordae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCTCCTTAACGGTTACTGCCTTCAGGTCTACCCAACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAACCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTCCTGCACGCGGCATGGCTGGGTCAGACTCTCGTCCATTGCCCAATATTCCCTACTGCTGCCTCCGTAGGAGTCTGGCCCGTATCTCNGTGCCAGTGNGGGGGACCTTCNCTCAGAACCCTACTGACCGAACCCTGGTGGTCCGTTAACCGCCACTAGCTAATC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE122B_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTAAACAGCTCCTTAACGGTTACTGCCTTCAGGTCTACCCAACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAACCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTTCTGGACGCGGCATGGCTGGGTCAGACTCTCGTCCATTGCCCAATATTCCCTACTGCTGCCTCCCGTAGGAATCTGGCCCGTANCTCAGTGCCAGTGTGGGGGACCTTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE126A_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGTGGGTAAGCGCCCTCCCGAAGGTTAAGCTACCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACATACTTTATGAGGTCCGCTTGCTCTCGCGAGTTTGCTTCTCTTTGTATATGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTTGAGTTCCCGACATTACTCGCTGGCAACAAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCGACTTAACGCGTTAGCTCCGGAAGCCACGCCTCAAGGGCACAACCTCCAAGTCGACATCGTTTACAGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGCTTGCCAGTTTCAAATGCAGTTCCCAAGTTAAGCTCGGGGATTTCACATCTGACTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCAATGTTCAGTGCTATTAACACTGAACCCTTCCTCCTCGCTGAAAGTGCTTTACAACCCTAAGGCCTTCTTCANCACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCNACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGTGGCTGGTCATCTCTCAGACAGCTAGGGATCGTCGCCTAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE126B_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAGGTTGAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGACATTCTGATTCGCGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTATGGGATTAGCTCCACCTCGCGGCTTGGCAACCCTTTGTACCGACCATTGTAGCACGTGTGTAGCCCAGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCACCATAACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAATGTTCCCGAAGGCACCCATCCATCTCTGGAAAGTTCATTGGATGTCAAGGCCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAGAGCTCAAGGCTCCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGTGTCAGTATCAGTCCAGGTGGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACTGGAAATTCCACCACCCTCTACCATACTCTAGCTTGTCAGTTTTGAATGCAGTTCCCAGGTTGAGCCCGGGGATTTCACATCCAACTTAACAAACCACCTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">VE82_2_1492R-Premixed.ab1</t>
   </si>
   <si>
     <t xml:space="preserve">AAGTGGGTAAGCGCCCTCCCGAAGGTTAAGCTACCTACTTCTTTTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTAGCATTCTGATCTACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACATACTTTATGAGGTCCGCTTGCTCTCGCGAGTTTGCTTCTCTTTGTATATGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTTGAGTTCCCGACATTACTCGCTGGCAACAAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCGACTTAACGCGTTAGCTCCGGAAGCCACGCCTCAAGGGCACAACCTCCAAGTCGACATCGTTTACAGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGCTTGCCAGTTTCAAATGCAGTTCCCAAGTTAAGCTCGGGGATTTCACATCTGACTTAACAAACCGCCTGCGTGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGCGAGTAACGTCAATGTTCAGTGCTATTAACACTGAACCCTTCCTCCTCGCTGAAAGTGCTTTACAACCCTAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAATCTGGGACCGTGTTCTCAGTTCCAGTGGGGGCTGGTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE89A_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudomonas promysalinigenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCGTGGGTAACCGTCCTCCCGAAGGTTAGACTAGCTACTTCTGGTGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGACATTCTGATTCGCGATTACTAGCGATTCCGACTTCACGCAGTCGAGTTGCAGACTGCGATCCGGACTACGATCGGTTTTGTGAGATTAGCTCCACCTCGCGGCTTGGCGACCCTCTGTACCGACCATTGTAGCACGTGTGTAGCCCAGGCCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCAGTCTCCTTAGAGTGCCCACCATAACGTGCTGGTAACTAAGGACAAGGGTTGCGCTCGTTACGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCTGCATGTCAAGGCCTGGTAAGGTTCTTCGCGTTGCTTCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCAACTTAATGCGTTAGCTGCGCCACTAAAATCTCAAGGATTCCAACGGCTAGTTGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCACCTCAGTGTCAGTATCAGTCCAGGTGGTCGCCTTCGCCACTGGTGTTCCTTCCTATATCTACGCATTTCACCGCTACACAGGAAATTCCACCACCCTCTACTGTACTCTAGCTTGCCAGTTTTGGATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCCAACTTAACAAACCACCTACGCGCGCTTTACGCCCAGTAATTCCGATTAACGCTTGCACCCTCTGTATTACCGCGGCTGCTGGCACAGAGTTAGCCGGTGCTTATTCTGTCGGTAACGTCAAAACAGCAAGGTATTCGCTTACTGCCCTTCCTCCCAACTTAAAGTGCTTTACAATCCGAAAACCTTCTTCCACACGCGGCATGGCTGGATCAGGCTTTCCGCCATTGTCCAAAATTCCCCACTGGCTGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE89B_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGCGTCCTCCCGAAGGTTAAACTACCTACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTTTGGGATTCGCTCACTATCGCTAGCTTGCTGCCCTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTGGAGTTCCCGACATTACTCGCTGGCAAACAAGGATAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCAGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAATCTTGCGACCGTACTCCCCAGGCGGTCTACTTAACGCGTTAGCTCCGAAAGCCACGGCTCAAGGCCACAACCTCCAAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGCATCTGAGTGTCAGTATCTGTCCAGGGGGCCGCCTTCGCCACTGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCCCCCTCTACAGTACTCTAGTTTGCCAGTTTCAAATGACCTTCCGAGGTTGAGCCCCGGGCTTTCACATCTGACTTAACAAACCACCTGCATGCGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTTGCTAACGTCAAGAAACGCAGTTATTAACTACGAAACCTTCCTCACAACTGAAAGTACTTTACAACCCGAAGGCCTTCTTCATACACGCGGCATGGCTGCATCAGGCTTTCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCCTCTCAAACCAGCTAGGGATCGTCGCCTTGGTGAACCATTACCTCACNAACTAGCTAATCCCCAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE94_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Shewanella arctica' Qoura et al. 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGTGGGTGAGCGCCCCCCGAAGGTTAAGCTACCCACTTCTTTTGCAGCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGAGCTTTGTGAGATTAGCTCCACCTCGCGGCTTTGCAACCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAGAGTTCCCACCATTACGTGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCACGGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCCGTGGATGTCAAGAGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAGCCCAGTGTTCAAGACACCAAACTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCTACAAGACTCTAGTTCGCCAGTTCGAAATGCAATTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGCACGCTTTACGCCCAGTAATTCCGATTAACGCTCGGACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTCCTTCTTCTGTAGGTAACGTCACAGCAACAGCGTATTAAGCTGCTACCTTTCCTCCCTACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE99A_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudoalteromonas undina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCGTGGGTAACGTCCTCCCGAGGGTTAGACTATCTACTTCTGGAGCAACCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCGTCATTCTGATACGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTACGACGCACTTTAAGTGATTCGCTTACCTTCGCAGGTTCGCAGCACTCTGTATGCGCCATTGTAGCACGTGTGTAGCCCTACACGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCTTAGAGTTCTCAGCATTACCTGCTAGCAACTAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTATCAGAGTTCCCGAAGGCACCAAACCATCTCTGGTAAGTTCTCTGTATGTCAAGTGTAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTTGAAAAACAGAACCGAGGCTCCGAGCTTCTAGTAGACATCGTTTACGGCGTGGACTACCGGGGTATCTAATCCCGTTTGCTCCCCACGCTTTCGTACATGAGCGTCAGTGTTGACCCAGGTGGCTGCCTTCGCCATCGGTATTCCTTCAGATCTCTACGCATTTCACCGCTACACCTGAAATTCTACCACCCTCTATCACACTCTAGTTTGCCAGTTCGAAATGCAGTTCCCAGGTTGAGCCCGGGGCTTTCACATCTCGCTTAACAAACCGCCTGCGTACGCTTTACGCCCAGTAATTCCGATTAACGCTCGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTCTTCTGTCAGTAACGTCACAGCTAGCAGGTATTAACTACTAACCTTTCCTCCTGACTGAAAGTGCTTTACAACCCGAAGGCCTTCTTCACACACGCGGCATGGCTGCATCAGGCTTGCGCCCATTGTGCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGGCCGTGTCTCAGTCCCAGTGTGGCTGATCATCNTCTCAAACCAGCTAGGGATCGTCGCCTTGGTGAACCATTACCTCCCAACTAGCTAATCCACTTGGGCAATCTAAAGGCAAAACCAAACCCCCTTTGGTCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VE99B_4_1492R-Premixed.ab1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACTTCTTTTGCATCCCACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGTGGCATTCTGATCCACGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCATACTCCAATCCGGACTACGACGAGCTTTGTGAGATTAGCTCCACCTCGCGGCTTTGCAACCCTCTGTACTCGCCATTGTAGCACGTGTGTAGCCCTACTCGTAAGGGCCATGATGACTTGACGTCGTCCCCACCTTCCTCCGGTTTATCACCGGCAGTCTCCCTAGAGTTCCCACCATTACGTGCTGGCAAATAAGGATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACATTTCACAACACGAGCTGACGACAGCCATGCAGCACCTGTCTCACGGTTCCCGAAGGCACTAAGCTATCTCTAGCGAATTCCGTGGATGTCAAGAGTATGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGGCCCCCGTCAATTCATTTGAGTTTTAACCTTGCGGCCGTACTCCCCAGGCGGTCTACTTAATGCGTTAGCTTGAGAGCCCAGTGTTCAAGACACCAAACTCCGAGTAGACATCGTTTACGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTGAGCGTCAGTCTTTGTCCAGGGGGCCGCCTTCGCCACCGGTATTCCTCCAGATCTCTACGCATTTCACCGCTACACCTGGAATTCTACCCCCCTCT</t>
   </si>
 </sst>
 </file>
@@ -2684,6 +2795,50 @@
         <v>116</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="n">
+        <v>99.256</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>100</v>
+      </c>
+      <c r="L36" t="n">
+        <v>941</v>
+      </c>
+      <c r="M36" t="n">
+        <v>941</v>
+      </c>
+      <c r="N36" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2744,7 +2899,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2783,12 +2938,12 @@
         <v>1054</v>
       </c>
       <c r="N2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2803,13 +2958,13 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I3" t="n">
         <v>98.433</v>
@@ -2827,12 +2982,12 @@
         <v>1085</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2871,12 +3026,12 @@
         <v>1050</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -2894,10 +3049,10 @@
         <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -2915,12 +3070,12 @@
         <v>1040</v>
       </c>
       <c r="N5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -2959,12 +3114,12 @@
         <v>1040</v>
       </c>
       <c r="N6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3003,12 +3158,12 @@
         <v>975</v>
       </c>
       <c r="N7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3029,7 +3184,7 @@
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I8" t="n">
         <v>99.897</v>
@@ -3047,12 +3202,12 @@
         <v>975</v>
       </c>
       <c r="N8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3091,12 +3246,12 @@
         <v>975</v>
       </c>
       <c r="N9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3135,12 +3290,12 @@
         <v>975</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3179,12 +3334,12 @@
         <v>975</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3223,12 +3378,12 @@
         <v>975</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -3267,12 +3422,12 @@
         <v>975</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -3311,12 +3466,12 @@
         <v>1001</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3331,13 +3486,13 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I15" t="n">
         <v>99.891</v>
@@ -3355,12 +3510,12 @@
         <v>914</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3381,7 +3536,7 @@
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I16" t="n">
         <v>99.795</v>
@@ -3399,12 +3554,12 @@
         <v>975</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3443,12 +3598,12 @@
         <v>1031</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3466,10 +3621,10 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I18" t="n">
         <v>99.807</v>
@@ -3487,12 +3642,12 @@
         <v>1035</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -3510,10 +3665,10 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I19" t="n">
         <v>99.807</v>
@@ -3531,12 +3686,12 @@
         <v>1035</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -3575,12 +3730,12 @@
         <v>949</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -3619,12 +3774,12 @@
         <v>949</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -3663,12 +3818,12 @@
         <v>949</v>
       </c>
       <c r="N22" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -3707,12 +3862,12 @@
         <v>949</v>
       </c>
       <c r="N23" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -3751,12 +3906,12 @@
         <v>949</v>
       </c>
       <c r="N24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3795,12 +3950,12 @@
         <v>1191</v>
       </c>
       <c r="N25" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -3839,12 +3994,12 @@
         <v>1231</v>
       </c>
       <c r="N26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -3865,7 +4020,7 @@
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I27" t="n">
         <v>98.846</v>
@@ -3883,7 +4038,51 @@
         <v>1222</v>
       </c>
       <c r="N27" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="n">
+        <v>99.009</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>100</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1210</v>
+      </c>
+      <c r="N28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3946,7 +4145,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3961,13 +4160,13 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I2" t="n">
         <v>97.536</v>
@@ -3985,12 +4184,12 @@
         <v>1063</v>
       </c>
       <c r="N2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -4029,12 +4228,12 @@
         <v>1069</v>
       </c>
       <c r="N3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4055,7 +4254,7 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -4073,12 +4272,12 @@
         <v>1078</v>
       </c>
       <c r="N4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4099,7 +4298,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -4117,12 +4316,12 @@
         <v>1078</v>
       </c>
       <c r="N5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4161,12 +4360,12 @@
         <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4205,12 +4404,12 @@
         <v>1013</v>
       </c>
       <c r="N7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4231,7 +4430,7 @@
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I8" t="n">
         <v>98.746</v>
@@ -4249,12 +4448,12 @@
         <v>1054</v>
       </c>
       <c r="N8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4269,13 +4468,13 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I9" t="n">
         <v>99.569</v>
@@ -4293,12 +4492,12 @@
         <v>1161</v>
       </c>
       <c r="N9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4316,10 +4515,10 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I10" t="n">
         <v>99.812</v>
@@ -4337,12 +4536,12 @@
         <v>1063</v>
       </c>
       <c r="N10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4358,10 +4557,10 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I11" t="n">
         <v>99.729</v>
@@ -4379,12 +4578,12 @@
         <v>1107</v>
       </c>
       <c r="N11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4423,12 +4622,12 @@
         <v>1035</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4467,12 +4666,12 @@
         <v>1035</v>
       </c>
       <c r="N13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -4511,12 +4710,12 @@
         <v>1035</v>
       </c>
       <c r="N14" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4555,12 +4754,12 @@
         <v>1035</v>
       </c>
       <c r="N15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -4599,12 +4798,12 @@
         <v>1035</v>
       </c>
       <c r="N16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -4643,12 +4842,12 @@
         <v>1035</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -4669,7 +4868,7 @@
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I18" t="n">
         <v>100</v>
@@ -4687,12 +4886,12 @@
         <v>1035</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -4713,7 +4912,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I19" t="n">
         <v>100</v>
@@ -4731,12 +4930,12 @@
         <v>1035</v>
       </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -4748,16 +4947,16 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I20" t="n">
         <v>99.213</v>
@@ -4775,12 +4974,12 @@
         <v>1145</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -4789,19 +4988,19 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I21" t="n">
         <v>97.28</v>
@@ -4819,12 +5018,12 @@
         <v>956</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -4839,13 +5038,13 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I22" t="n">
         <v>99.798</v>
@@ -4863,12 +5062,12 @@
         <v>994</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -4883,13 +5082,13 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I23" t="n">
         <v>99.555</v>
@@ -4907,7 +5106,139 @@
         <v>1124</v>
       </c>
       <c r="N23" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H24" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" t="n">
+        <v>98.065</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>775</v>
+      </c>
+      <c r="M24" t="n">
+        <v>774</v>
+      </c>
+      <c r="N24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" t="n">
+        <v>98.185</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1209</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" t="n">
+        <v>99.586</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>98</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1228</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4970,7 +5301,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4991,7 +5322,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I2" t="n">
         <v>98.748</v>
@@ -5009,12 +5340,12 @@
         <v>1048</v>
       </c>
       <c r="N2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5035,7 +5366,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="I3" t="n">
         <v>99.197</v>
@@ -5053,12 +5384,12 @@
         <v>996</v>
       </c>
       <c r="N3" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5079,7 +5410,7 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I4" t="n">
         <v>98.725</v>
@@ -5097,12 +5428,12 @@
         <v>1037</v>
       </c>
       <c r="N4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -5123,7 +5454,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="I5" t="n">
         <v>99.898</v>
@@ -5141,12 +5472,12 @@
         <v>982</v>
       </c>
       <c r="N5" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5155,19 +5486,19 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="I6" t="n">
         <v>99.5</v>
@@ -5185,12 +5516,12 @@
         <v>1001</v>
       </c>
       <c r="N6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -5208,10 +5539,10 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="I7" t="n">
         <v>98.645</v>
@@ -5229,12 +5560,12 @@
         <v>1048</v>
       </c>
       <c r="N7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -5249,13 +5580,13 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="I8" t="n">
         <v>99.237</v>
@@ -5273,12 +5604,12 @@
         <v>1053</v>
       </c>
       <c r="N8" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -5317,12 +5648,12 @@
         <v>1046</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -5361,12 +5692,12 @@
         <v>1027</v>
       </c>
       <c r="N10" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -5384,10 +5715,10 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I11" t="n">
         <v>99.804</v>
@@ -5405,12 +5736,12 @@
         <v>1018</v>
       </c>
       <c r="N11" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -5422,16 +5753,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H12" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I12" t="n">
         <v>99.429</v>
@@ -5449,12 +5780,12 @@
         <v>1050</v>
       </c>
       <c r="N12" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -5493,12 +5824,12 @@
         <v>1057</v>
       </c>
       <c r="N13" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -5510,16 +5841,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="I14" t="n">
         <v>99.904</v>
@@ -5537,12 +5868,12 @@
         <v>1051</v>
       </c>
       <c r="N14" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -5563,7 +5894,7 @@
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="I15" t="n">
         <v>99.911</v>
@@ -5581,12 +5912,12 @@
         <v>1123</v>
       </c>
       <c r="N15" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -5607,7 +5938,7 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="I16" t="n">
         <v>99.635</v>
@@ -5625,12 +5956,12 @@
         <v>1097</v>
       </c>
       <c r="N16" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -5651,7 +5982,7 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="I17" t="n">
         <v>99.714</v>
@@ -5669,12 +6000,12 @@
         <v>1050</v>
       </c>
       <c r="N17" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -5695,7 +6026,7 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="I18" t="n">
         <v>99.698</v>
@@ -5713,12 +6044,12 @@
         <v>992</v>
       </c>
       <c r="N18" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -5739,7 +6070,7 @@
         <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I19" t="n">
         <v>98.214</v>
@@ -5757,12 +6088,12 @@
         <v>1227</v>
       </c>
       <c r="N19" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -5783,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="I20" t="n">
         <v>98.214</v>
@@ -5801,12 +6132,12 @@
         <v>1227</v>
       </c>
       <c r="N20" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -5824,10 +6155,10 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="I21" t="n">
         <v>98.312</v>
@@ -5845,51 +6176,535 @@
         <v>1244</v>
       </c>
       <c r="N21" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" t="n">
+        <v>98.423</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" t="n">
+        <v>98.423</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1199</v>
+      </c>
+      <c r="N23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" t="n">
+        <v>99.047</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>100</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1154</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1154</v>
+      </c>
+      <c r="N24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="n">
+        <v>99.047</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>100</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1154</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1154</v>
+      </c>
+      <c r="N25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E22" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="E26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" t="n">
+        <v>99.577</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>98</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1181</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" t="n">
+        <v>99.656</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27" t="n">
+        <v>872</v>
+      </c>
+      <c r="M27" t="n">
+        <v>872</v>
+      </c>
+      <c r="N27" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" t="n">
         <v>99.565</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>98</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>1150</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M28" t="n">
         <v>1172</v>
       </c>
-      <c r="N22" t="s">
-        <v>265</v>
+      <c r="N28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" t="n">
+        <v>99.108</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>90</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1009</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1124</v>
+      </c>
+      <c r="N29" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I30" t="n">
+        <v>99.593</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>100</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1228</v>
+      </c>
+      <c r="N30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" t="n">
+        <v>99.812</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>100</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1063</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1062</v>
+      </c>
+      <c r="N31" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>299</v>
+      </c>
+      <c r="I32" t="n">
+        <v>98.825</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>100</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1277</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1272</v>
+      </c>
+      <c r="N32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>296</v>
+      </c>
+      <c r="I33" t="n">
+        <v>99.613</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>100</v>
+      </c>
+      <c r="L33" t="n">
+        <v>776</v>
+      </c>
+      <c r="M33" t="n">
+        <v>776</v>
+      </c>
+      <c r="N33" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Résultats/combined_dataVerveur.xlsx
+++ b/Résultats/combined_dataVerveur.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t xml:space="preserve">qseqid</t>
   </si>
@@ -362,12 +362,6 @@
     <t xml:space="preserve">CCTCCCGAAAGGTTAAGCTACCTGCTTCTGGGTGCAACAAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCAATGCTGATCTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGATAGGGTTTCTGGGATTGGCTTGCCCTCGCGGGTTTGCAGCCCTCTGTCCCTACCATTGTAGTACGTGTGTAGCCCTGGTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCGGTCTCCTTAGAGTTCCCACCATTACGTGCTGGCAACTAAGGACAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTTCGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCGACATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATACTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGCGAACTTAACGCGTTAGCTTCGATACTGCGTGCCAAATTGCACCCAACATCCAGTTCGCATCGTTTAGGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTCAGTGTCAGTGTTGGTCCAGGTAGCTGCCTTCGCCATGGATGTTCCTCCCGATCTCTACGCATTTCACTGCTACACCGGGAATTCCACTACCCTCTACCACACTCTAGTCGCCCAGTATCCACTGCAATTCCCAGGTTGAGCCCAGGGCTTTCACAACAGACTTAAACAACCACCTACGCACGCTTTACGCCCAGTAATTCCGAGTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTTTGGGTACCGTCAGAACAACCGAGTATTAATCGACTGCTTT</t>
   </si>
   <si>
-    <t xml:space="preserve">VG80_1_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTGGGCAAGCGCCCTCCCGAAGGTTAAGCTACCTGCTTCTGGTGCAACAAACTCCCATGGTGTGACGGGCGGTGTGTACAAGGCCCGGGAACGTATTCACCGCAGCAATGCTGATCTGCGATTACTAGCGATTCCGACTTCATGGAGTCGAGTTGCAGACTCCAATCCGGACTGAGATAGGGTTTCTGGGATTGGCTTGCCCTCGCGGGTTTGCAGCCCTCTGTCCCTACCATTGTAGTACGTGTGTAGCCCTGGTCGTAAGGGCCATGATGACTTGACGTCATCCCCACCTTCCTCCGGTTTGTCACCGGCGGTCTCCTTAGAGTTCCCACCATTACGTGCTGGCAACTAAGGACAAGGGTTGCGCTCGTTGCGGGACTTAACCCAACATCTCACGACACGAGCTGACGACAGCCATGCAGCACCTGTGTTCGAGTTCCCGAAGGCACCAATCCATCTCTGGAAAGTTCTCGACATGTCAAGACCAGGTAAGGTTCTTCGCGTTGCATCGAATTAAACCACATACTCCACCGCTTGTGCGGGCCCCCGTCAATTCCTTTGAGTTTCAGTCTTGCGACCGTACTCCCCAGGCGGCGAACTTAACGCGTTAGCTTCGATACTGCGTGCCAAATTGCACCCAACATCCAGTTCGCATCGTTTAGGGCGTGGACTACCAGGGTATCTAATCCTGTTTGCTCCCCACGCTTTCGTGCCTCAGTGTCAGTGTTGGTCCAGGTAGCTGCCTTCGCCATGGATGTTCCTCCCGATCTCTACGCATTTCACTGCTACACCGGGAATTCCACTACCCTCTACCACACTCTAGTCGCCCAGTATCCACTGCAATTCCCAGGTTGAGCCCAGGGCTTTCACAACAGACTTAAACAACCACCTACGCACGCTTTACGCCCAGTAATTCCGAGTAACGCTTGCACCCTTCGTATTACCGCGGCTGCTGGCACGAAGTTAGCCGGTGCTTATTCTTTGGGTACCGTCAGAACAACCGAGTATTAATCGACTGCTTTTCTTTCCCAACAAAAGGGCTTTACAACCCGAAGGCCTTCTTCACCCACGCGGTATGGCTGGATCAGGCTTGCGCCCATTGTCCAATATTCCCCACTGCTGCCTCCCGTAGGAGTCTGGACCGTGTCTCAGTTCCAGTGTGGCTGATCATCCTNTCAAACCAGCTACGGNTCGTCGCCTTGGTGGGCC</t>
-  </si>
-  <si>
     <t xml:space="preserve">VG9_4_1492R-Premixed.ab1</t>
   </si>
   <si>
@@ -861,12 +855,6 @@
   </si>
   <si>
     <t xml:space="preserve">GCTCCTTAACGGTTACTGCCTTCAGGTCTACCCAACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAACCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTCCTGCACGCGGCATGGCTGGGTCAGACTCTCGTCCATTGCCCAATATTCCCTACTGCTGCCTCCGTAGGAGTCTGGCCCGTATCTCNGTGCCAGTGNGGGGGACCTTCNCTCAGAACCCTACTGACCGAACCCTGGTGGTCCGTTAACCGCCACTAGCTAATC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE122B_4_1492R-Premixed.ab1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCTAAACAGCTCCTTAACGGTTACTGCCTTCAGGTCTACCCAACTTCCATGGCTTGACGGGCGGTGTGTACAAGGTCCGGGAACGTATTCACCGCGCCATGGCTGATGCGCGATTACTAGCGATTCCAGCTTCACGGGGTCGAGTTGCAGACCCCGATCCGAACTGAGACGCACTTTTAGAGGTTGGCATCCTGTTGCCAGGTAGCTACCCGCTGTATGCGCCATTGTAGCACGTGTGTCGCCCTGGGCGTAAGGGCCATGATGACCTGACGTCGTCCCCTCCTTCCTCTCTGCTTGCGCAGGCAGTCTGTCTAGAGTCCCCACCATTACGTGCTGGCAACTAAACATAGGGGTTGCGCTCGTTGCGGGACTTAACCCAACACCTCACGGCACGAGCTGACGACGGCCATGCAGCACCTTGTTTCGGGTCATTGCTGACTGATCTGTCTCCAAACCATTCCCTCACATTCTAGCCCAGGTAAGGTTCCTCGCGTATCATCGAATTAAACCACATGCTCCACCGCTTGTGCGGACCCCCGTCAATTCCTTTGAGTTTCACTCTTGCGAGCGTACTCCCCAGGTGGATTACTTAACGCTTTCGCTTGGCCGCTACAACATAAAGCCATAACAGCGAGTAATCATCGTTTACGGCATGGACTACCAGGGTATCTAATCCTGTTCGCTACCCATGCTTTCGTGCATCAGCGTCAGTTATTGGCCAGTACAATGCCTTCGCTATCGGTGTTCCTGATGGTATCTATGCATTTCACCGCTACACCATCAATTCCATGTACCCCTCCAATACTCAAGCTATCCAGTATCAATGGCACTGCTCCGGTTGAGCCGGAGTCTTTCACCACTGACTTAAATAGCCGCCTACGCACCCTTTAAACCCAATAAATCCGGACAACGCTTGCACCCTCCGTATTACCGCGGCTGCTGGCACGGAGTTAGCCGGTGCTTATTCATCTGGTACCGGCAATTTCCCTCGCAAGGGCATTTTCTTCCCAGATAAAAGCAGTTTACAACGCAGAACGCCGTCTTTCTGGACGCGGCATGGCTGGGTCAGACTCTCGTCCATTGCCCAATATTCCCTACTGCTGCCTCCCGTAGGAATCTGGCCCGTANCTCAGTGCCAGTGTGGGGGACCTTCC</t>
   </si>
   <si>
     <t xml:space="preserve">VE126A_4_1492R-Premixed.ab1</t>
@@ -2759,25 +2747,25 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I35" t="n">
-        <v>99.669</v>
+        <v>99.256</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2786,57 +2774,13 @@
         <v>100</v>
       </c>
       <c r="L35" t="n">
-        <v>1210</v>
+        <v>941</v>
       </c>
       <c r="M35" t="n">
-        <v>1210</v>
+        <v>941</v>
       </c>
       <c r="N35" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I36" t="n">
-        <v>99.256</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>100</v>
-      </c>
-      <c r="L36" t="n">
-        <v>941</v>
-      </c>
-      <c r="M36" t="n">
-        <v>941</v>
-      </c>
-      <c r="N36" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2899,7 +2843,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2938,12 +2882,12 @@
         <v>1054</v>
       </c>
       <c r="N2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -2958,13 +2902,13 @@
         <v>39</v>
       </c>
       <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" t="s">
         <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>124</v>
       </c>
       <c r="I3" t="n">
         <v>98.433</v>
@@ -2982,12 +2926,12 @@
         <v>1085</v>
       </c>
       <c r="N3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3026,12 +2970,12 @@
         <v>1050</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -3049,10 +2993,10 @@
         <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -3070,12 +3014,12 @@
         <v>1040</v>
       </c>
       <c r="N5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -3114,12 +3058,12 @@
         <v>1040</v>
       </c>
       <c r="N6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3158,12 +3102,12 @@
         <v>975</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -3184,7 +3128,7 @@
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I8" t="n">
         <v>99.897</v>
@@ -3202,12 +3146,12 @@
         <v>975</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -3246,12 +3190,12 @@
         <v>975</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -3290,12 +3234,12 @@
         <v>975</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -3334,12 +3278,12 @@
         <v>975</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3378,12 +3322,12 @@
         <v>975</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -3422,12 +3366,12 @@
         <v>975</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -3466,12 +3410,12 @@
         <v>1001</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -3486,13 +3430,13 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
         <v>138</v>
-      </c>
-      <c r="G15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" t="s">
-        <v>140</v>
       </c>
       <c r="I15" t="n">
         <v>99.891</v>
@@ -3510,12 +3454,12 @@
         <v>914</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -3536,7 +3480,7 @@
         <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" t="n">
         <v>99.795</v>
@@ -3554,12 +3498,12 @@
         <v>975</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -3598,12 +3542,12 @@
         <v>1031</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -3621,10 +3565,10 @@
         <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I18" t="n">
         <v>99.807</v>
@@ -3642,12 +3586,12 @@
         <v>1035</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -3665,10 +3609,10 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I19" t="n">
         <v>99.807</v>
@@ -3686,12 +3630,12 @@
         <v>1035</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -3730,12 +3674,12 @@
         <v>949</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -3774,12 +3718,12 @@
         <v>949</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -3818,12 +3762,12 @@
         <v>949</v>
       </c>
       <c r="N22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -3862,12 +3806,12 @@
         <v>949</v>
       </c>
       <c r="N23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -3906,12 +3850,12 @@
         <v>949</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -3950,12 +3894,12 @@
         <v>1191</v>
       </c>
       <c r="N25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -3994,12 +3938,12 @@
         <v>1231</v>
       </c>
       <c r="N26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -4020,7 +3964,7 @@
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I27" t="n">
         <v>98.846</v>
@@ -4038,12 +3982,12 @@
         <v>1222</v>
       </c>
       <c r="N27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -4082,7 +4026,7 @@
         <v>1210</v>
       </c>
       <c r="N28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4145,7 +4089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -4160,13 +4104,13 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
         <v>97.536</v>
@@ -4184,12 +4128,12 @@
         <v>1063</v>
       </c>
       <c r="N2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -4228,12 +4172,12 @@
         <v>1069</v>
       </c>
       <c r="N3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4254,7 +4198,7 @@
         <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I4" t="n">
         <v>100</v>
@@ -4272,12 +4216,12 @@
         <v>1078</v>
       </c>
       <c r="N4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -4298,7 +4242,7 @@
         <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I5" t="n">
         <v>100</v>
@@ -4316,12 +4260,12 @@
         <v>1078</v>
       </c>
       <c r="N5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -4360,12 +4304,12 @@
         <v>1013</v>
       </c>
       <c r="N6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4404,12 +4348,12 @@
         <v>1013</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -4430,7 +4374,7 @@
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I8" t="n">
         <v>98.746</v>
@@ -4448,12 +4392,12 @@
         <v>1054</v>
       </c>
       <c r="N8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -4468,13 +4412,13 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I9" t="n">
         <v>99.569</v>
@@ -4492,12 +4436,12 @@
         <v>1161</v>
       </c>
       <c r="N9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -4515,10 +4459,10 @@
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I10" t="n">
         <v>99.812</v>
@@ -4536,12 +4480,12 @@
         <v>1063</v>
       </c>
       <c r="N10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4557,10 +4501,10 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I11" t="n">
         <v>99.729</v>
@@ -4578,12 +4522,12 @@
         <v>1107</v>
       </c>
       <c r="N11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4622,12 +4566,12 @@
         <v>1035</v>
       </c>
       <c r="N12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -4666,12 +4610,12 @@
         <v>1035</v>
       </c>
       <c r="N13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -4710,12 +4654,12 @@
         <v>1035</v>
       </c>
       <c r="N14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -4754,12 +4698,12 @@
         <v>1035</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -4798,12 +4742,12 @@
         <v>1035</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -4842,12 +4786,12 @@
         <v>1035</v>
       </c>
       <c r="N17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -4868,7 +4812,7 @@
         <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I18" t="n">
         <v>100</v>
@@ -4886,12 +4830,12 @@
         <v>1035</v>
       </c>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -4912,7 +4856,7 @@
         <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I19" t="n">
         <v>100</v>
@@ -4930,33 +4874,33 @@
         <v>1035</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
         <v>191</v>
       </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>192</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>193</v>
-      </c>
-      <c r="G20" t="s">
-        <v>194</v>
-      </c>
-      <c r="H20" t="s">
-        <v>195</v>
       </c>
       <c r="I20" t="n">
         <v>99.213</v>
@@ -4974,33 +4918,33 @@
         <v>1145</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
         <v>197</v>
       </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>198</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>199</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>200</v>
-      </c>
-      <c r="G21" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" t="s">
-        <v>202</v>
       </c>
       <c r="I21" t="n">
         <v>97.28</v>
@@ -5018,12 +4962,12 @@
         <v>956</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -5038,13 +4982,13 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I22" t="n">
         <v>99.798</v>
@@ -5062,12 +5006,12 @@
         <v>994</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -5082,13 +5026,13 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I23" t="n">
         <v>99.555</v>
@@ -5106,12 +5050,12 @@
         <v>1124</v>
       </c>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -5123,16 +5067,16 @@
         <v>75</v>
       </c>
       <c r="E24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
         <v>209</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>210</v>
-      </c>
-      <c r="G24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H24" t="s">
-        <v>212</v>
       </c>
       <c r="I24" t="n">
         <v>98.065</v>
@@ -5150,12 +5094,12 @@
         <v>774</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -5176,7 +5120,7 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I25" t="n">
         <v>98.185</v>
@@ -5194,33 +5138,33 @@
         <v>1209</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" t="s">
         <v>217</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>218</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>219</v>
-      </c>
-      <c r="G26" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" t="s">
-        <v>221</v>
       </c>
       <c r="I26" t="n">
         <v>99.586</v>
@@ -5238,7 +5182,7 @@
         <v>1228</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5301,7 +5245,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -5322,7 +5266,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I2" t="n">
         <v>98.748</v>
@@ -5340,12 +5284,12 @@
         <v>1048</v>
       </c>
       <c r="N2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -5366,7 +5310,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I3" t="n">
         <v>99.197</v>
@@ -5384,12 +5328,12 @@
         <v>996</v>
       </c>
       <c r="N3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -5410,7 +5354,7 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I4" t="n">
         <v>98.725</v>
@@ -5428,12 +5372,12 @@
         <v>1037</v>
       </c>
       <c r="N4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -5454,7 +5398,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I5" t="n">
         <v>99.898</v>
@@ -5472,12 +5416,12 @@
         <v>982</v>
       </c>
       <c r="N5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -5486,19 +5430,19 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" t="s">
         <v>234</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>235</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>236</v>
-      </c>
-      <c r="G6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" t="s">
-        <v>238</v>
       </c>
       <c r="I6" t="n">
         <v>99.5</v>
@@ -5516,12 +5460,12 @@
         <v>1001</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -5539,10 +5483,10 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I7" t="n">
         <v>98.645</v>
@@ -5560,12 +5504,12 @@
         <v>1048</v>
       </c>
       <c r="N7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -5580,13 +5524,13 @@
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I8" t="n">
         <v>99.237</v>
@@ -5604,12 +5548,12 @@
         <v>1053</v>
       </c>
       <c r="N8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -5648,12 +5592,12 @@
         <v>1046</v>
       </c>
       <c r="N9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -5692,12 +5636,12 @@
         <v>1027</v>
       </c>
       <c r="N10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -5715,10 +5659,10 @@
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I11" t="n">
         <v>99.804</v>
@@ -5736,33 +5680,33 @@
         <v>1018</v>
       </c>
       <c r="N11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" t="s">
         <v>252</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H12" t="s">
-        <v>254</v>
       </c>
       <c r="I12" t="n">
         <v>99.429</v>
@@ -5780,12 +5724,12 @@
         <v>1050</v>
       </c>
       <c r="N12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -5824,12 +5768,12 @@
         <v>1057</v>
       </c>
       <c r="N13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -5841,16 +5785,16 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" t="s">
         <v>218</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>219</v>
-      </c>
-      <c r="G14" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" t="s">
-        <v>221</v>
       </c>
       <c r="I14" t="n">
         <v>99.904</v>
@@ -5868,12 +5812,12 @@
         <v>1051</v>
       </c>
       <c r="N14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -5894,7 +5838,7 @@
         <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I15" t="n">
         <v>99.911</v>
@@ -5912,12 +5856,12 @@
         <v>1123</v>
       </c>
       <c r="N15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -5938,7 +5882,7 @@
         <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I16" t="n">
         <v>99.635</v>
@@ -5956,12 +5900,12 @@
         <v>1097</v>
       </c>
       <c r="N16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -5982,7 +5926,7 @@
         <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I17" t="n">
         <v>99.714</v>
@@ -6000,12 +5944,12 @@
         <v>1050</v>
       </c>
       <c r="N17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -6026,7 +5970,7 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I18" t="n">
         <v>99.698</v>
@@ -6044,12 +5988,12 @@
         <v>992</v>
       </c>
       <c r="N18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -6070,7 +6014,7 @@
         <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I19" t="n">
         <v>98.214</v>
@@ -6088,12 +6032,12 @@
         <v>1227</v>
       </c>
       <c r="N19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -6114,7 +6058,7 @@
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I20" t="n">
         <v>98.214</v>
@@ -6132,12 +6076,12 @@
         <v>1227</v>
       </c>
       <c r="N20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -6155,10 +6099,10 @@
         <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I21" t="n">
         <v>98.312</v>
@@ -6176,12 +6120,12 @@
         <v>1244</v>
       </c>
       <c r="N21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -6202,7 +6146,7 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I22" t="n">
         <v>98.423</v>
@@ -6220,12 +6164,12 @@
         <v>1199</v>
       </c>
       <c r="N22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -6264,51 +6208,51 @@
         <v>1199</v>
       </c>
       <c r="N23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="H24" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="I24" t="n">
-        <v>99.047</v>
+        <v>99.577</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L24" t="n">
-        <v>1154</v>
+        <v>1181</v>
       </c>
       <c r="M24" t="n">
-        <v>1154</v>
+        <v>1200</v>
       </c>
       <c r="N24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
@@ -6319,25 +6263,25 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="I25" t="n">
-        <v>99.047</v>
+        <v>99.656</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -6346,10 +6290,10 @@
         <v>100</v>
       </c>
       <c r="L25" t="n">
-        <v>1154</v>
+        <v>872</v>
       </c>
       <c r="M25" t="n">
-        <v>1154</v>
+        <v>872</v>
       </c>
       <c r="N25" t="s">
         <v>283</v>
@@ -6369,19 +6313,19 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
         <v>218</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>219</v>
       </c>
-      <c r="G26" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" t="s">
-        <v>221</v>
-      </c>
       <c r="I26" t="n">
-        <v>99.577</v>
+        <v>99.565</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -6390,10 +6334,10 @@
         <v>98</v>
       </c>
       <c r="L26" t="n">
-        <v>1181</v>
+        <v>1150</v>
       </c>
       <c r="M26" t="n">
-        <v>1200</v>
+        <v>1172</v>
       </c>
       <c r="N26" t="s">
         <v>285</v>
@@ -6422,30 +6366,30 @@
         <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="I27" t="n">
-        <v>99.656</v>
+        <v>99.108</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L27" t="n">
-        <v>872</v>
+        <v>1009</v>
       </c>
       <c r="M27" t="n">
-        <v>872</v>
+        <v>1124</v>
       </c>
       <c r="N27" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
@@ -6457,39 +6401,39 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="I28" t="n">
-        <v>99.565</v>
+        <v>99.593</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
-        <v>1150</v>
+        <v>1229</v>
       </c>
       <c r="M28" t="n">
-        <v>1172</v>
+        <v>1228</v>
       </c>
       <c r="N28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
@@ -6501,39 +6445,39 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H29" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I29" t="n">
-        <v>99.108</v>
+        <v>99.812</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
-        <v>1009</v>
+        <v>1063</v>
       </c>
       <c r="M29" t="n">
-        <v>1124</v>
+        <v>1062</v>
       </c>
       <c r="N29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
@@ -6545,19 +6489,19 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="I30" t="n">
-        <v>99.593</v>
+        <v>98.825</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -6566,18 +6510,18 @@
         <v>100</v>
       </c>
       <c r="L30" t="n">
-        <v>1229</v>
+        <v>1277</v>
       </c>
       <c r="M30" t="n">
-        <v>1228</v>
+        <v>1272</v>
       </c>
       <c r="N30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -6592,16 +6536,16 @@
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I31" t="n">
-        <v>99.812</v>
+        <v>99.613</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -6610,101 +6554,13 @@
         <v>100</v>
       </c>
       <c r="L31" t="n">
-        <v>1063</v>
+        <v>776</v>
       </c>
       <c r="M31" t="n">
-        <v>1062</v>
+        <v>776</v>
       </c>
       <c r="N31" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
         <v>298</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" t="s">
-        <v>299</v>
-      </c>
-      <c r="I32" t="n">
-        <v>98.825</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1277</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1272</v>
-      </c>
-      <c r="N32" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>301</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" t="s">
-        <v>296</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99.613</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>100</v>
-      </c>
-      <c r="L33" t="n">
-        <v>776</v>
-      </c>
-      <c r="M33" t="n">
-        <v>776</v>
-      </c>
-      <c r="N33" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
